--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rspo1-Znrf3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rspo1-Znrf3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Rspo1</t>
+  </si>
+  <si>
+    <t>Znrf3</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Rspo1</t>
-  </si>
-  <si>
-    <t>Znrf3</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -549,10 +549,10 @@
         <v>0.210976</v>
       </c>
       <c r="I2">
-        <v>0.08223838591731571</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="J2">
-        <v>0.08223838591731569</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.721674</v>
+        <v>1.751081</v>
       </c>
       <c r="N2">
-        <v>2.165022</v>
+        <v>5.253242999999999</v>
       </c>
       <c r="O2">
-        <v>0.05118925378009882</v>
+        <v>0.1288297203700383</v>
       </c>
       <c r="P2">
-        <v>0.05118925378009883</v>
+        <v>0.1288297203700383</v>
       </c>
       <c r="Q2">
-        <v>0.05075196460800001</v>
+        <v>0.1231453550186667</v>
       </c>
       <c r="R2">
-        <v>0.456767681472</v>
+        <v>1.108308195168</v>
       </c>
       <c r="S2">
-        <v>0.004209721607187179</v>
+        <v>0.02430407758424544</v>
       </c>
       <c r="T2">
-        <v>0.004209721607187179</v>
+        <v>0.02430407758424545</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.210976</v>
       </c>
       <c r="I3">
-        <v>0.08223838591731571</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="J3">
-        <v>0.08223838591731569</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>8.077188</v>
       </c>
       <c r="O3">
-        <v>0.1909750692425153</v>
+        <v>0.1980837116075211</v>
       </c>
       <c r="P3">
-        <v>0.1909750692425153</v>
+        <v>0.1980837116075212</v>
       </c>
       <c r="Q3">
         <v>0.1893436461653333</v>
@@ -641,10 +641,10 @@
         <v>1.704092815488</v>
       </c>
       <c r="S3">
-        <v>0.01570548144495206</v>
+        <v>0.03736903162761294</v>
       </c>
       <c r="T3">
-        <v>0.01570548144495205</v>
+        <v>0.03736903162761294</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -673,10 +673,10 @@
         <v>0.210976</v>
       </c>
       <c r="I4">
-        <v>0.08223838591731571</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="J4">
-        <v>0.08223838591731569</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.210539666666667</v>
+        <v>2.197714333333333</v>
       </c>
       <c r="N4">
-        <v>6.631619000000001</v>
+        <v>6.593143</v>
       </c>
       <c r="O4">
-        <v>0.1567963872717807</v>
+        <v>0.16168922112487</v>
       </c>
       <c r="P4">
-        <v>0.1567963872717807</v>
+        <v>0.1616892211248701</v>
       </c>
       <c r="Q4">
-        <v>0.1554569389048889</v>
+        <v>0.1545549930631111</v>
       </c>
       <c r="R4">
-        <v>1.399112450144</v>
+        <v>1.390994937568</v>
       </c>
       <c r="S4">
-        <v>0.01289468180689759</v>
+        <v>0.03050311188650986</v>
       </c>
       <c r="T4">
-        <v>0.01289468180689759</v>
+        <v>0.03050311188650987</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -735,10 +735,10 @@
         <v>0.210976</v>
       </c>
       <c r="I5">
-        <v>0.08223838591731571</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="J5">
-        <v>0.08223838591731569</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.749780333333334</v>
+        <v>3.688264666666667</v>
       </c>
       <c r="N5">
-        <v>17.249341</v>
+        <v>11.064794</v>
       </c>
       <c r="O5">
-        <v>0.4078392247231038</v>
+        <v>0.2713512999440684</v>
       </c>
       <c r="P5">
-        <v>0.4078392247231039</v>
+        <v>0.2713512999440685</v>
       </c>
       <c r="Q5">
-        <v>0.4043552185351111</v>
+        <v>0.2593784421048889</v>
       </c>
       <c r="R5">
-        <v>3.639196966816</v>
+        <v>2.334405978944</v>
       </c>
       <c r="S5">
-        <v>0.03354003955499746</v>
+        <v>0.05119116169377534</v>
       </c>
       <c r="T5">
-        <v>0.03354003955499745</v>
+        <v>0.05119116169377536</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -797,10 +797,10 @@
         <v>0.210976</v>
       </c>
       <c r="I6">
-        <v>0.08223838591731571</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="J6">
-        <v>0.08223838591731569</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2530873333333333</v>
+        <v>0.4731156666666667</v>
       </c>
       <c r="N6">
-        <v>0.7592619999999999</v>
+        <v>1.419347</v>
       </c>
       <c r="O6">
-        <v>0.01795180612648989</v>
+        <v>0.03480784671831339</v>
       </c>
       <c r="P6">
-        <v>0.01795180612648989</v>
+        <v>0.0348078467183134</v>
       </c>
       <c r="Q6">
-        <v>0.01779845107911111</v>
+        <v>0.03327201696355556</v>
       </c>
       <c r="R6">
-        <v>0.160186059712</v>
+        <v>0.299448152672</v>
       </c>
       <c r="S6">
-        <v>0.001476327560143108</v>
+        <v>0.006566595074122027</v>
       </c>
       <c r="T6">
-        <v>0.001476327560143108</v>
+        <v>0.006566595074122028</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>0.210976</v>
       </c>
       <c r="I7">
-        <v>0.08223838591731571</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="J7">
-        <v>0.08223838591731569</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.470677</v>
+        <v>2.789641333333333</v>
       </c>
       <c r="N7">
-        <v>7.412030999999999</v>
+        <v>8.368924</v>
       </c>
       <c r="O7">
-        <v>0.1752482588560114</v>
+        <v>0.2052382002351886</v>
       </c>
       <c r="P7">
-        <v>0.1752482588560114</v>
+        <v>0.2052382002351886</v>
       </c>
       <c r="Q7">
-        <v>0.173751183584</v>
+        <v>0.1961824566471111</v>
       </c>
       <c r="R7">
-        <v>1.563760652256</v>
+        <v>1.765642109824</v>
       </c>
       <c r="S7">
-        <v>0.01441213394313831</v>
+        <v>0.03871874539073363</v>
       </c>
       <c r="T7">
-        <v>0.01441213394313831</v>
+        <v>0.03871874539073364</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.06003333333333333</v>
+        <v>0.3024513333333333</v>
       </c>
       <c r="H8">
-        <v>0.1801</v>
+        <v>0.907354</v>
       </c>
       <c r="I8">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="J8">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.721674</v>
+        <v>1.751081</v>
       </c>
       <c r="N8">
-        <v>2.165022</v>
+        <v>5.253242999999999</v>
       </c>
       <c r="O8">
-        <v>0.05118925378009882</v>
+        <v>0.1288297203700383</v>
       </c>
       <c r="P8">
-        <v>0.05118925378009883</v>
+        <v>0.1288297203700383</v>
       </c>
       <c r="Q8">
-        <v>0.0433244958</v>
+        <v>0.5296167832246667</v>
       </c>
       <c r="R8">
-        <v>0.3899204622</v>
+        <v>4.766551049022</v>
       </c>
       <c r="S8">
-        <v>0.003593635586296123</v>
+        <v>0.1045256427857929</v>
       </c>
       <c r="T8">
-        <v>0.003593635586296124</v>
+        <v>0.1045256427857929</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.06003333333333333</v>
+        <v>0.3024513333333333</v>
       </c>
       <c r="H9">
-        <v>0.1801</v>
+        <v>0.907354</v>
       </c>
       <c r="I9">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="J9">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>8.077188</v>
       </c>
       <c r="O9">
-        <v>0.1909750692425153</v>
+        <v>0.1980837116075211</v>
       </c>
       <c r="P9">
-        <v>0.1909750692425153</v>
+        <v>0.1980837116075212</v>
       </c>
       <c r="Q9">
-        <v>0.1616335065333333</v>
+        <v>0.8143187600613334</v>
       </c>
       <c r="R9">
-        <v>1.4547015588</v>
+        <v>7.328868840551999</v>
       </c>
       <c r="S9">
-        <v>0.01340700936711221</v>
+        <v>0.1607146799799082</v>
       </c>
       <c r="T9">
-        <v>0.01340700936711221</v>
+        <v>0.1607146799799082</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.06003333333333333</v>
+        <v>0.3024513333333333</v>
       </c>
       <c r="H10">
-        <v>0.1801</v>
+        <v>0.907354</v>
       </c>
       <c r="I10">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="J10">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.210539666666667</v>
+        <v>2.197714333333333</v>
       </c>
       <c r="N10">
-        <v>6.631619000000001</v>
+        <v>6.593143</v>
       </c>
       <c r="O10">
-        <v>0.1567963872717807</v>
+        <v>0.16168922112487</v>
       </c>
       <c r="P10">
-        <v>0.1567963872717807</v>
+        <v>0.1616892211248701</v>
       </c>
       <c r="Q10">
-        <v>0.1327060646555556</v>
+        <v>0.6647016304024445</v>
       </c>
       <c r="R10">
-        <v>1.1943545819</v>
+        <v>5.982314673622</v>
       </c>
       <c r="S10">
-        <v>0.011007565758296</v>
+        <v>0.1311861092383602</v>
       </c>
       <c r="T10">
-        <v>0.011007565758296</v>
+        <v>0.1311861092383602</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.06003333333333333</v>
+        <v>0.3024513333333333</v>
       </c>
       <c r="H11">
-        <v>0.1801</v>
+        <v>0.907354</v>
       </c>
       <c r="I11">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="J11">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.749780333333334</v>
+        <v>3.688264666666667</v>
       </c>
       <c r="N11">
-        <v>17.249341</v>
+        <v>11.064794</v>
       </c>
       <c r="O11">
-        <v>0.4078392247231038</v>
+        <v>0.2713512999440684</v>
       </c>
       <c r="P11">
-        <v>0.4078392247231039</v>
+        <v>0.2713512999440685</v>
       </c>
       <c r="Q11">
-        <v>0.3451784793444445</v>
+        <v>1.115520566119556</v>
       </c>
       <c r="R11">
-        <v>3.1066063141</v>
+        <v>10.039685095076</v>
       </c>
       <c r="S11">
-        <v>0.02863150843629153</v>
+        <v>0.2201601382502931</v>
       </c>
       <c r="T11">
-        <v>0.02863150843629153</v>
+        <v>0.2201601382502931</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.06003333333333333</v>
+        <v>0.3024513333333333</v>
       </c>
       <c r="H12">
-        <v>0.1801</v>
+        <v>0.907354</v>
       </c>
       <c r="I12">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="J12">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.2530873333333333</v>
+        <v>0.4731156666666667</v>
       </c>
       <c r="N12">
-        <v>0.7592619999999999</v>
+        <v>1.419347</v>
       </c>
       <c r="O12">
-        <v>0.01795180612648989</v>
+        <v>0.03480784671831339</v>
       </c>
       <c r="P12">
-        <v>0.01795180612648989</v>
+        <v>0.0348078467183134</v>
       </c>
       <c r="Q12">
-        <v>0.01519367624444444</v>
+        <v>0.1430944642042222</v>
       </c>
       <c r="R12">
-        <v>0.1367430862</v>
+        <v>1.287850177838</v>
       </c>
       <c r="S12">
-        <v>0.001260269384108968</v>
+        <v>0.02824125164419136</v>
       </c>
       <c r="T12">
-        <v>0.001260269384108968</v>
+        <v>0.02824125164419137</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.06003333333333333</v>
+        <v>0.3024513333333333</v>
       </c>
       <c r="H13">
-        <v>0.1801</v>
+        <v>0.907354</v>
       </c>
       <c r="I13">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="J13">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,400 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.470677</v>
+        <v>2.789641333333333</v>
       </c>
       <c r="N13">
-        <v>7.412030999999999</v>
+        <v>8.368924</v>
       </c>
       <c r="O13">
-        <v>0.1752482588560114</v>
+        <v>0.2052382002351886</v>
       </c>
       <c r="P13">
-        <v>0.1752482588560114</v>
+        <v>0.2052382002351886</v>
       </c>
       <c r="Q13">
-        <v>0.1483229759</v>
+        <v>0.8437307407884446</v>
       </c>
       <c r="R13">
-        <v>1.3349067831</v>
+        <v>7.593576667095999</v>
       </c>
       <c r="S13">
-        <v>0.0123029412025975</v>
+        <v>0.1665194548444549</v>
       </c>
       <c r="T13">
-        <v>0.0123029412025975</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.7247813333333332</v>
-      </c>
-      <c r="H14">
-        <v>2.174344</v>
-      </c>
-      <c r="I14">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="J14">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.721674</v>
-      </c>
-      <c r="N14">
-        <v>2.165022</v>
-      </c>
-      <c r="O14">
-        <v>0.05118925378009882</v>
-      </c>
-      <c r="P14">
-        <v>0.05118925378009883</v>
-      </c>
-      <c r="Q14">
-        <v>0.5230558439519999</v>
-      </c>
-      <c r="R14">
-        <v>4.707502595567999</v>
-      </c>
-      <c r="S14">
-        <v>0.04338589658661552</v>
-      </c>
-      <c r="T14">
-        <v>0.04338589658661553</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.7247813333333332</v>
-      </c>
-      <c r="H15">
-        <v>2.174344</v>
-      </c>
-      <c r="I15">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="J15">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>2.692396</v>
-      </c>
-      <c r="N15">
-        <v>8.077188</v>
-      </c>
-      <c r="O15">
-        <v>0.1909750692425153</v>
-      </c>
-      <c r="P15">
-        <v>0.1909750692425153</v>
-      </c>
-      <c r="Q15">
-        <v>1.951398362741333</v>
-      </c>
-      <c r="R15">
-        <v>17.56258526467199</v>
-      </c>
-      <c r="S15">
-        <v>0.161862578430451</v>
-      </c>
-      <c r="T15">
-        <v>0.161862578430451</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.7247813333333332</v>
-      </c>
-      <c r="H16">
-        <v>2.174344</v>
-      </c>
-      <c r="I16">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="J16">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.210539666666667</v>
-      </c>
-      <c r="N16">
-        <v>6.631619000000001</v>
-      </c>
-      <c r="O16">
-        <v>0.1567963872717807</v>
-      </c>
-      <c r="P16">
-        <v>0.1567963872717807</v>
-      </c>
-      <c r="Q16">
-        <v>1.602157886992889</v>
-      </c>
-      <c r="R16">
-        <v>14.419420982936</v>
-      </c>
-      <c r="S16">
-        <v>0.1328941397065871</v>
-      </c>
-      <c r="T16">
-        <v>0.1328941397065871</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.7247813333333332</v>
-      </c>
-      <c r="H17">
-        <v>2.174344</v>
-      </c>
-      <c r="I17">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="J17">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>5.749780333333334</v>
-      </c>
-      <c r="N17">
-        <v>17.249341</v>
-      </c>
-      <c r="O17">
-        <v>0.4078392247231038</v>
-      </c>
-      <c r="P17">
-        <v>0.4078392247231039</v>
-      </c>
-      <c r="Q17">
-        <v>4.167333456367111</v>
-      </c>
-      <c r="R17">
-        <v>37.50600110730399</v>
-      </c>
-      <c r="S17">
-        <v>0.3456676767318148</v>
-      </c>
-      <c r="T17">
-        <v>0.3456676767318149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>0.7247813333333332</v>
-      </c>
-      <c r="H18">
-        <v>2.174344</v>
-      </c>
-      <c r="I18">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="J18">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M18">
-        <v>0.2530873333333333</v>
-      </c>
-      <c r="N18">
-        <v>0.7592619999999999</v>
-      </c>
-      <c r="O18">
-        <v>0.01795180612648989</v>
-      </c>
-      <c r="P18">
-        <v>0.01795180612648989</v>
-      </c>
-      <c r="Q18">
-        <v>0.183432974903111</v>
-      </c>
-      <c r="R18">
-        <v>1.650896774127999</v>
-      </c>
-      <c r="S18">
-        <v>0.01521520918223781</v>
-      </c>
-      <c r="T18">
-        <v>0.01521520918223781</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>0.7247813333333332</v>
-      </c>
-      <c r="H19">
-        <v>2.174344</v>
-      </c>
-      <c r="I19">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="J19">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>2.470677</v>
-      </c>
-      <c r="N19">
-        <v>7.412030999999999</v>
-      </c>
-      <c r="O19">
-        <v>0.1752482588560114</v>
-      </c>
-      <c r="P19">
-        <v>0.1752482588560114</v>
-      </c>
-      <c r="Q19">
-        <v>1.790700570295999</v>
-      </c>
-      <c r="R19">
-        <v>16.116305132664</v>
-      </c>
-      <c r="S19">
-        <v>0.1485331837102757</v>
-      </c>
-      <c r="T19">
-        <v>0.1485331837102757</v>
+        <v>0.166519454844455</v>
       </c>
     </row>
   </sheetData>
